--- a/Docs/BugImprovTracking.xlsx
+++ b/Docs/BugImprovTracking.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t xml:space="preserve">Bug Tracking</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Insert option to add more than 2 parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear button to clear data for new search / take off delete</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.98"/>
@@ -609,11 +612,21 @@
       <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Docs/BugImprovTracking.xlsx
+++ b/Docs/BugImprovTracking.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t xml:space="preserve">Bug Tracking</t>
   </si>
@@ -68,6 +68,32 @@
   </si>
   <si>
     <t xml:space="preserve">clear button to clear data for new search / take off delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on courses form can have a list of all courses with the same 
+name for user select 
+See next title (#6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/2/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on course when use search can have 2 courses with the 
+same name and year
+Can have a box to user select with course data I got with
+ Getsection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
 </sst>
 </file>
@@ -369,7 +395,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -396,6 +422,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -500,7 +530,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -629,26 +659,46 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>44611</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,193 +735,193 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
